--- a/TestngCucumber/src/test/resources/org/Excel/AppData.xlsx
+++ b/TestngCucumber/src/test/resources/org/Excel/AppData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaWorkspace\TestNgcucumberFramework\src\test\resources\org\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bhushanRepo\TestngCucumber\src\test\resources\org\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A321689-3BD4-49BD-B5D9-64274F78CC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3F511-40E8-4EE4-8E48-0F726E9CBE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="180" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="621">
   <si>
     <t>Product Name</t>
   </si>
@@ -1425,394 +1425,478 @@
     <t>Product Name(Chocolate)</t>
   </si>
   <si>
-    <t>Cadbury Dairy Milk Home Treats Chocolate : 126 gms</t>
+    <t>Nestle Kitkat Chocolate : 119 gms</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Fruit &amp; Nut Chocolate : 137 gms</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Roast Almond Chocolate : 137 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Home Treats Chocolate : 119 gms</t>
   </si>
   <si>
     <t>149</t>
   </si>
   <si>
-    <t>Cadbury Choclairs Gold Pouch : 605 gms</t>
+    <t>Cadbury Dairy Milk : 123 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Home Treats : 153 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Chocolate : 50 gms</t>
+  </si>
+  <si>
+    <t>Ferrero Rocher - 16 Pieces : 200 gms</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>Nestle Munch Share Bag : 160.2 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Oreo Chocolate : 130 gms</t>
+  </si>
+  <si>
+    <t>Cadbury 5 Star Home Treat Chocolate : 191.9 gms</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Fruit &amp; Nut Chocolate : 80 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Fuse Home Treats : 108.5 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Gems Surprise - Ball : 15.8 gms</t>
+  </si>
+  <si>
+    <t>Snickers Veg Chocolate : 45 gms</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Bubbly Chocolate : 120 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Perk Home Treats Chocolate : 126 gms</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Chocolate : 150 gms</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Bounty Miniatures Chocolate : 130 gms</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Ferrero Rocher - 24 Pieces : 300 gms</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>Nestle Kitkat Bar 4 Finger : 36.5 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Mousse : 116 gms</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Crackle Chocolate : 36 gms</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Fruit &amp; Nut : 55 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Fuse Chocolate Bar : 45 gms</t>
+  </si>
+  <si>
+    <t>Ferrero Rocher - 4 Pieces : 50 gms</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Kinder Joy Blue : 20 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Crispello Chocolate : 33 gms</t>
+  </si>
+  <si>
+    <t>Snickers Family Treat : 132 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Roast Almond : 55 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk Hazelnut : 143 gms</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Cadbury Gems Minis : 126.4 gms</t>
+  </si>
+  <si>
+    <t>Kinder Joy Pink : 20 gms</t>
+  </si>
+  <si>
+    <t>Nestle Kitkat : 18 gms</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Cadbury 5 Star Chocolate : 40 gms</t>
+  </si>
+  <si>
+    <t>Nestle Kitkat Chocolate : 27.5 gms</t>
+  </si>
+  <si>
+    <t>Hershey's Kisses Milk Chocolate Pouch : 108 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Gems DUO Pack : 25.28 gms</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Luvit Chocwich White Home Delight Pouch : 160 gms</t>
+  </si>
+  <si>
+    <t>Nestle Milky Bar : 22.5 gms</t>
+  </si>
+  <si>
+    <t>Bounty Chocolate : 57 gms</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Cadbury Perk Double Glucose Chocolate : 22 gms</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Snickers Butterscotch Chocolate Bar : 40 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Bites - Almond : 40 gms</t>
+  </si>
+  <si>
+    <t>Nestle Milky Bar Chocolate : 38 gms</t>
+  </si>
+  <si>
+    <t>Luvit Loca Choco Caramel Home Delights Pack : 20x10 gms</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Luvit Luscious Roasted Almond Chocolate : 45 gms</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Bites - Hazelnut : 40 gms</t>
+  </si>
+  <si>
+    <t>Luvit Smackers Lollipop Fruit Flavoured : 6x10 gms</t>
+  </si>
+  <si>
+    <t>Galaxy Milk Chocolate With Fruit &amp; Nut : 100 gms</t>
+  </si>
+  <si>
+    <t>Hershey's Blueberry &amp; Acai Flavored Chocolate : 100 gms</t>
+  </si>
+  <si>
+    <t>Luvit Luscious Fruit &amp; Nuts Chocolate : 45 gms</t>
+  </si>
+  <si>
+    <t>Luvit Milk Chocolate Home Pack : 18x7 gms</t>
+  </si>
+  <si>
+    <t>Kinder Creamy Milky &amp; Crunchy : 19 gms</t>
+  </si>
+  <si>
+    <t>Hershey's Whole Almonds Chocolate Bar : 40 gms</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Fabelle Choco Deck French Dessert Layered Bar : 122.5 gms</t>
+  </si>
+  <si>
+    <t>Fabelle Choco Deck Fruit &amp; Nut Cho: 128 gms</t>
+  </si>
+  <si>
+    <t>Fabelle Choco Deck Milk Cho: 128 gms</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Hershey's Kisses Moments Chocolate Gift Pack : 103.2 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Dairy Milk Silk 16 Luxurious Pralines : 160 gms</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>Cadbury Silk 24 Luxurious Pralines : 240 gms</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>Hershey's Kisses Moments Gift Pack : 129 gms</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Ferrero Rocher Moments Chocolate Box: 185.6 gms</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>Cadbury Celebrations Rich Dryfruit : 177 gms</t>
+  </si>
+  <si>
+    <t>Didier &amp; Frank Wicked Dark 85% Dark Chocolate : 100 gms</t>
+  </si>
+  <si>
+    <t>Didier &amp; Frank Roasted Almond Dark Chocolate : 100 gms</t>
+  </si>
+  <si>
+    <t>Didier &amp; Frank Crunchy Hazelnut Dark Chocolate : 100 gms</t>
+  </si>
+  <si>
+    <t>Didier &amp; Frank Spanish Orange Dark Chocolate : 100 gms</t>
+  </si>
+  <si>
+    <t>Hershey's Chocolate Syrup : 623 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Bournville Rich Cocoa Dark Chocolate : 80 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Bournville Cranberry Dark Chocolate : 80 gms</t>
+  </si>
+  <si>
+    <t>Amul Dark Chocolate : 150 gms</t>
+  </si>
+  <si>
+    <t>Hershey's Exotic Dark Almond Blackberry Flavor Chocolate : 90 gms</t>
+  </si>
+  <si>
+    <t>Didier &amp; Frank Assorted Dark Chocolate Gift Box : 200 gms</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>The Whole Truth 71% Dark Chocolate : 80 gms</t>
+  </si>
+  <si>
+    <t>The Whole Truth Hazelnut Dark Chocolate : 80 gms</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>The Belgian Waffle Classic Choco Crisps : 85 gms</t>
+  </si>
+  <si>
+    <t>The Belgian Waffle Crisps Double Choco Crisps : 85 gms</t>
   </si>
   <si>
     <t>Amul Chocominis Chocolate Box : 250 gms</t>
   </si>
   <si>
-    <t>Nestle Kitkat Chocolate : 119 gms</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Amul Dark Chocolate : 150 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Roast Almond Chocolate : 137 gms</t>
-  </si>
-  <si>
-    <t>Cadbury 5 Star Home Treat Chocolate : 200 gms</t>
-  </si>
-  <si>
-    <t>Nestle Munch Share Bag : 187.2 gms</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Chocolate : 150 gms</t>
-  </si>
-  <si>
-    <t>Ferrero Rocher - 16 Pieces : 200 gms</t>
-  </si>
-  <si>
-    <t>529</t>
-  </si>
-  <si>
-    <t>449</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Home Treats : 162 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk : 126 gms</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Cadbury Perk Home Treats Chocolate : 175 gms</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Cadbury Gems Minis : 142.2 gms</t>
-  </si>
-  <si>
-    <t>Ferrero Rocher - 24 Pieces : 300 gms</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Chocolate : 50 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Bubbly Chocolate : 120 gms</t>
-  </si>
-  <si>
-    <t>Parle Melody Chocolaty : 391 gms</t>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Hershey's Dark Pomegranate Flavored Chocolate : 100 gms</t>
   </si>
   <si>
     <t>89</t>
   </si>
   <si>
-    <t>Bounty Miniatures Chocolate : 130 gms</t>
-  </si>
-  <si>
     <t>Amul India Twilight Tryst Dark Chocolate : 125 gms</t>
   </si>
   <si>
-    <t>Snickers Veg Chocolate : 45 gms</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Kinder Joy Blue : 20 gms</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Cadbury Fuse Home Treats : 108.5 gms</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Candyman Choco Double Eclairs : 273 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Gems Surprise - Ball : 15.8 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Oreo Chocolate : 130 gms</t>
-  </si>
-  <si>
-    <t>Kinder Joy Pink : 20 gms</t>
-  </si>
-  <si>
-    <t>Yoga Bar 20G Protein Bar - Almond Fudge : 60 gms</t>
-  </si>
-  <si>
-    <t>Yoga Bar Breakfast Protein Bar - Apricot Fig : 50 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Fruit &amp; Nut : 55 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Fruit &amp; Nut Chocolate : 80 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Kisses Almond Chocolate Pouch : 100.8 gms</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Hershey's Kisses Milk Chocolate Pouch : 108 gms</t>
-  </si>
-  <si>
-    <t>Yoga Bar Multigrain Energy Bar - Nuts &amp; Seeds : 38 gms</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Ferrero Rocher - 4 Pieces : 50 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Mousse : 116 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk Roast Almond : 55 gms</t>
-  </si>
-  <si>
-    <t>Yoga Bar Multigrain Energy Bar - Chocolate Chunk Nut : 38 gms</t>
-  </si>
-  <si>
-    <t>Luvit Chocwich White Home Delight Pouch : 170 gms</t>
-  </si>
-  <si>
-    <t>Kinder Creamy Milky &amp; Crunchy : 19 gms</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Luvit Loca Choco Caramel Home Delights Pack : 20x10 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Gems DUO Pack : 25.28 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Blueberry &amp; Acai Flavored Chocolate : 100 gms</t>
-  </si>
-  <si>
-    <t>Galaxy Milk Chocolate With Fruit &amp; Nut : 100 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Dark Pomegranate Flavored Chocolate : 100 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Exotic Dark Almond Blackberry Flavor Chocolate : 90 gms</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Hershey's Exotic Dark Almond Guava Mexican Chili Flavor Chocolate : 90 gms</t>
-  </si>
-  <si>
-    <t>Ferrero Rocher Moments 24 Pieces : 139.2 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Whole Almonds Chocolate Bar : 40 gms</t>
-  </si>
-  <si>
-    <t>Christopher Cocoa Dark Chocolate Sprinkles : 200 gms</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>Hershey's Creamy Milk Chocolate Bar : 40 gms</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk 16 Luxurious Pralines : 160 gms</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>380</t>
-  </si>
-  <si>
-    <t>Cadbury Choclairs Delights Choco Coffee Pack : 280.5 gms</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>Cadbury Celebration Silk Chocolate Gift Pack : 233 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Silk 24 Premium Miniatures : 240 gms</t>
-  </si>
-  <si>
-    <t>424</t>
-  </si>
-  <si>
-    <t>Cadbury Celebrations : 178.8 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Celebrations : 59.8 gm</t>
-  </si>
-  <si>
-    <t>Cadbury Celebrations Premium Selection : 268 gms</t>
+    <t>479</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>Horlicks Chocolate Delight Jar : 500 gms</t>
+  </si>
+  <si>
+    <t>Complan Royal Chocolate : 1 kg</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>Hershey's Chocolate Milk Shake : 180 ml</t>
+  </si>
+  <si>
+    <t>Cavin's Chocolate Milkshake : 1 Litre</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>Protinex Chocolate Flavour : 750 gms</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>Epigamia Milkshake Chocolate : 180 ml</t>
+  </si>
+  <si>
+    <t>Ribbons &amp; Balloons Chocolate Muffins : 135 gms</t>
+  </si>
+  <si>
+    <t>Sofit Soya Drink Chocolate : 1 Litre</t>
+  </si>
+  <si>
+    <t>Britannia Fudge It Chocolate Brownie : 40 gms</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Horlicks Chocolate Delight Flavour Jar : 200 gms</t>
+  </si>
+  <si>
+    <t>Ribbons &amp; Balloons Chocolate Slice Cake : 50 gms</t>
+  </si>
+  <si>
+    <t>Meiji Lucky Stick Chocolate Biscuit : 45 gms</t>
+  </si>
+  <si>
+    <t>Parle Melody Chocolaty : 371.45 gms</t>
+  </si>
+  <si>
+    <t>Flying Bird Vanilla Essence : 20 ml</t>
+  </si>
+  <si>
+    <t>Blue Bird Cocoa Powder : 50 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Oreo Chocolate Flavour Creme Sandwich Biscuit : 288.75 gms</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Pickwick Creamy Wafer Biscuits - Chocolate : 75 gms</t>
+  </si>
+  <si>
+    <t>Cadbury Bournvita Chocolate Health Drink Jar : 1 Kg</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>Cadbury Bournvita Chocolate Health Drink Pouch : 1 Kg</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>Amul Pro Whey Protein Malt Chocolate Drink : 500 gms</t>
+  </si>
+  <si>
+    <t>Pediasure Nutritional Powder - Premium Chocolate Flavour : 1 kg</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>Women's Horlicks Health &amp; Nutrition Drink - Chocolate : 400 gms</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>Protinex Chocolate Flavour Health Drink Tin : 400 gms</t>
+  </si>
+  <si>
+    <t>595</t>
+  </si>
+  <si>
+    <t>Horlicks Health &amp; Nutrition Drink Refill - Chocolate : 750 gms</t>
   </si>
   <si>
     <t>375</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Hershey's Raspberry &amp; Goji Flavored Chocolate : 100 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Celebrations Rich Dryfruit : 177 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Celebrations Premium Selection Chocolates : 217 gms</t>
-  </si>
-  <si>
-    <t>Kinder Joy With Surprise : 20 gms</t>
-  </si>
-  <si>
-    <t>Kinder Joy Gift Pack : 40 gms</t>
-  </si>
-  <si>
-    <t>Kinder Joy Gift Pack : 60 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Oreo Moments Gift Pack : 250 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Dairy Milk Bites - Almond : 40 gms</t>
-  </si>
-  <si>
-    <t>Cadbury Celebrations Dark Noir Selection : 240 gms</t>
-  </si>
-  <si>
-    <t>The Belgian Waffle Crisps - Chocolate : 90 gms</t>
-  </si>
-  <si>
-    <t>The Belgian Waffle Crisps - Double Chocolate : 90 gms</t>
-  </si>
-  <si>
-    <t>Horlicks Chocolate Delight Jar : 500 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Chocolate Syrup : 623 gms</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>Complan Royal Chocolate : 1 kg</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>Sofit Soya Drink Chocolate : 1 Litre</t>
-  </si>
-  <si>
-    <t>Funfoods Chocolate Spread Fudge : 350 gms</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>Ribbons &amp; Balloons Chocolate Muffins : 135 gms</t>
-  </si>
-  <si>
-    <t>Horlicks Chocolate Delight Flavour : 2x500 gms</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>Cadbury Hot Chocolate Drinking Powder : 200 gms</t>
-  </si>
-  <si>
-    <t>Hershey's Milk Booster Chocolate Flavor : 450 gms</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>Horlicks Chocolate Delight Flavour Jar : 200 gms</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Kellogg's Chocolate &amp; Almonds Crunchy Granola : 450 gms</t>
-  </si>
-  <si>
-    <t>Betty Crocker Mug Treat Chocolate : 264 gms</t>
-  </si>
-  <si>
-    <t>Horlicks Chocolate Delight Health Drink Refill : 500 gms</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Amul Pro Whey Protein Malt Chocolate Drink : 500 gms</t>
-  </si>
-  <si>
-    <t>Pediasure Nutritional Powder - Premium Chocolate Flavour : 1 kg</t>
-  </si>
-  <si>
-    <t>1375</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>Women's Horlicks Health &amp; Nutrition Drink - Chocolate : 400 gms</t>
-  </si>
-  <si>
-    <t>Protinex Chocolate Flavour Health Drink Tin : 400 gms</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>Horlicks Health &amp; Nutrition Drink Refill - Chocolate : 750 gms</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Gaia Sport Whey Irish Chocolate Protein : 1 kg</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>1299</t>
-  </si>
-  <si>
-    <t>Protinex Health Drink Chocolate Flavour Tin : 250 gms</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
     <t>Britannia Fudge It Chocolate Brownie Cake : 120 gms</t>
+  </si>
+  <si>
+    <t>Colombian Brew Instant Coffee Double Chocolate Mocha : 100 gms</t>
   </si>
   <si>
     <t>Bisky Bites Chocolate Blast Sandwich Biscuits : 300 gms</t>
@@ -1822,7 +1906,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2141,11 +2226,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="86.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="86.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,10 +3233,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="85" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="85.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5938,17 +6023,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF69AFBA-CFC0-42DE-AE75-E6FFB4A7872B}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5974,10 +6059,10 @@
         <v>462</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>463</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5989,10 +6074,10 @@
         <v>464</v>
       </c>
       <c r="C3" t="s">
-        <v>455</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,13 +6086,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,13 +6101,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>467</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,13 +6116,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,13 +6131,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,13 +6146,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6076,13 +6161,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C9" t="s">
-        <v>299</v>
+        <v>473</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6091,13 +6176,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6106,13 +6191,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>247</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6124,10 +6209,10 @@
         <v>477</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6136,13 +6221,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,10 +6239,10 @@
         <v>480</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>481</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,13 +6251,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,46 +6266,46 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
         <v>483</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>484</v>
       </c>
-      <c r="D16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>485</v>
       </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
         <v>486</v>
       </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6229,13 +6314,13 @@
         <v>487</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6244,304 +6329,304 @@
         <v>489</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
       <c r="D20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>493</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>495</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>497</v>
-      </c>
-      <c r="C25" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
       <c r="B27" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
         <v>69</v>
       </c>
       <c r="D28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>506</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>507</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>510</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>512</v>
+      </c>
+      <c r="C35" t="s">
+        <v>513</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>514</v>
+      </c>
+      <c r="C36" t="s">
+        <v>513</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>501</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>502</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>505</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>516</v>
+      </c>
+      <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>507</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>508</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>510</v>
-      </c>
-      <c r="C36" t="s">
-        <v>463</v>
-      </c>
-      <c r="D36" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>512</v>
-      </c>
-      <c r="C38" t="s">
-        <v>71</v>
-      </c>
       <c r="D38" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>517</v>
+      </c>
+      <c r="C39" t="s">
         <v>513</v>
       </c>
-      <c r="C39" t="s">
-        <v>36</v>
-      </c>
       <c r="D39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -6550,979 +6635,1315 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C41" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D41" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>523</v>
+      </c>
+      <c r="C43" t="s">
+        <v>524</v>
+      </c>
+      <c r="D43" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>526</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>527</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>513</v>
+      </c>
+      <c r="D46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>529</v>
+      </c>
+      <c r="C48" t="s">
         <v>263</v>
       </c>
-      <c r="D42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>518</v>
-      </c>
-      <c r="C43" t="s">
-        <v>509</v>
-      </c>
-      <c r="D43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D48" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>533</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>534</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>536</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>537</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>539</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>540</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C58" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>543</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>544</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>546</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>547</v>
+      </c>
+      <c r="C62" t="s">
+        <v>548</v>
+      </c>
+      <c r="D62" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>550</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>552</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>554</v>
+      </c>
+      <c r="C65" t="s">
+        <v>555</v>
+      </c>
+      <c r="D65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B66" t="s">
+        <v>556</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" ref="A67:A132" si="1">ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>557</v>
+      </c>
+      <c r="C67" t="s">
+        <v>420</v>
+      </c>
+      <c r="D67" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>558</v>
+      </c>
+      <c r="C68" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>559</v>
+      </c>
+      <c r="C69" t="s">
+        <v>420</v>
+      </c>
+      <c r="D69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>560</v>
+      </c>
+      <c r="C70" t="s">
+        <v>420</v>
+      </c>
+      <c r="D70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>561</v>
+      </c>
+      <c r="C71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>562</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>455</v>
+      </c>
+      <c r="D74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>519</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>520</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>521</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>522</v>
-      </c>
-      <c r="C48" t="s">
-        <v>523</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>524</v>
-      </c>
-      <c r="C49" t="s">
-        <v>523</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>525</v>
-      </c>
-      <c r="C51" t="s">
-        <v>448</v>
-      </c>
-      <c r="D51" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>526</v>
-      </c>
-      <c r="C53" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>527</v>
-      </c>
-      <c r="C54" t="s">
-        <v>528</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>529</v>
-      </c>
-      <c r="C55" t="s">
-        <v>530</v>
-      </c>
-      <c r="D55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>531</v>
-      </c>
-      <c r="C56" t="s">
-        <v>532</v>
-      </c>
-      <c r="D56" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>534</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>536</v>
-      </c>
-      <c r="C58" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>537</v>
-      </c>
-      <c r="C59" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>539</v>
-      </c>
-      <c r="C60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>540</v>
-      </c>
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>541</v>
-      </c>
-      <c r="C62" t="s">
-        <v>542</v>
-      </c>
-      <c r="D62" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>544</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>545</v>
-      </c>
-      <c r="C64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>546</v>
-      </c>
-      <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>547</v>
-      </c>
-      <c r="C66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" ref="A67:A105" si="1">ROW()-1</f>
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>548</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>549</v>
-      </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>563</v>
+      </c>
+      <c r="C76" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>550</v>
-      </c>
-      <c r="C69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>551</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>552</v>
-      </c>
-      <c r="C71" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>553</v>
-      </c>
-      <c r="C75" t="s">
-        <v>26</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>554</v>
-      </c>
-      <c r="C76" t="s">
-        <v>26</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>564</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>565</v>
+      </c>
+      <c r="C78" t="s">
+        <v>509</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>566</v>
+      </c>
+      <c r="C79" t="s">
+        <v>567</v>
+      </c>
+      <c r="D79" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>569</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>570</v>
+      </c>
+      <c r="C81" t="s">
+        <v>571</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>572</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>573</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>574</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>578</v>
+      </c>
+      <c r="C86" t="s">
+        <v>509</v>
+      </c>
+      <c r="D86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>90</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C87" t="s">
+        <v>579</v>
+      </c>
+      <c r="D87" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>581</v>
+      </c>
+      <c r="C88" t="s">
+        <v>571</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>582</v>
+      </c>
+      <c r="C89" t="s">
+        <v>583</v>
+      </c>
+      <c r="D89" t="s">
         <v>85</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>584</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>585</v>
+      </c>
+      <c r="C91" t="s">
+        <v>586</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>555</v>
-      </c>
-      <c r="C78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="1"/>
+      <c r="B92" t="s">
+        <v>587</v>
+      </c>
+      <c r="C92" t="s">
+        <v>588</v>
+      </c>
+      <c r="D92" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>589</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>590</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>591</v>
+      </c>
+      <c r="C95" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>592</v>
+      </c>
+      <c r="C96" t="s">
+        <v>513</v>
+      </c>
+      <c r="D96" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>594</v>
+      </c>
+      <c r="C97" t="s">
+        <v>545</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>556</v>
-      </c>
-      <c r="C79" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>558</v>
-      </c>
-      <c r="C80" t="s">
-        <v>208</v>
-      </c>
-      <c r="D80" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>560</v>
-      </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>561</v>
-      </c>
-      <c r="C82" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>563</v>
-      </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>596</v>
+      </c>
+      <c r="C99" t="s">
+        <v>455</v>
+      </c>
+      <c r="D99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>597</v>
+      </c>
+      <c r="C100" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>598</v>
+      </c>
+      <c r="C101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" t="s">
         <v>69</v>
       </c>
-      <c r="D83" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>564</v>
-      </c>
-      <c r="C84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>566</v>
-      </c>
-      <c r="C86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>567</v>
-      </c>
-      <c r="C87" t="s">
-        <v>455</v>
-      </c>
-      <c r="D87" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>569</v>
-      </c>
-      <c r="C88" t="s">
-        <v>570</v>
-      </c>
-      <c r="D88" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>572</v>
-      </c>
-      <c r="C89" t="s">
-        <v>445</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>573</v>
-      </c>
-      <c r="C90" t="s">
-        <v>455</v>
-      </c>
-      <c r="D90" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>599</v>
+      </c>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
         <v>120</v>
-      </c>
-      <c r="C92" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>574</v>
-      </c>
-      <c r="C93" t="s">
-        <v>575</v>
-      </c>
-      <c r="D93" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>576</v>
-      </c>
-      <c r="C94" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>577</v>
-      </c>
-      <c r="C95" t="s">
-        <v>578</v>
-      </c>
-      <c r="D95" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>580</v>
-      </c>
-      <c r="C96" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>581</v>
-      </c>
-      <c r="C97" t="s">
-        <v>205</v>
-      </c>
-      <c r="D97" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>583</v>
-      </c>
-      <c r="C98" t="s">
-        <v>584</v>
-      </c>
-      <c r="D98" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>586</v>
-      </c>
-      <c r="C99" t="s">
-        <v>587</v>
-      </c>
-      <c r="D99" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>589</v>
-      </c>
-      <c r="C100" t="s">
-        <v>168</v>
-      </c>
-      <c r="D100" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>591</v>
-      </c>
-      <c r="C101" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>592</v>
-      </c>
-      <c r="C102" t="s">
-        <v>88</v>
-      </c>
-      <c r="D102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>41</v>
       </c>
       <c r="C103" t="s">
         <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>600</v>
       </c>
       <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>602</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>603</v>
+      </c>
+      <c r="C106" t="s">
+        <v>604</v>
+      </c>
+      <c r="D106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>605</v>
+      </c>
+      <c r="C107" t="s">
+        <v>606</v>
+      </c>
+      <c r="D107" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>608</v>
+      </c>
+      <c r="C108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>609</v>
+      </c>
+      <c r="C109" t="s">
+        <v>610</v>
+      </c>
+      <c r="D109" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>612</v>
+      </c>
+      <c r="C110" t="s">
+        <v>91</v>
+      </c>
+      <c r="D110" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>614</v>
+      </c>
+      <c r="C111" t="s">
+        <v>207</v>
+      </c>
+      <c r="D111" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>616</v>
+      </c>
+      <c r="C112" t="s">
+        <v>617</v>
+      </c>
+      <c r="D112" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>618</v>
+      </c>
+      <c r="C113" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>619</v>
+      </c>
+      <c r="C114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D114" t="s">
         <v>55</v>
       </c>
-      <c r="D104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>58</v>
-      </c>
-      <c r="C105" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" t="s">
-        <v>56</v>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>620</v>
+      </c>
+      <c r="C115" t="s">
+        <v>83</v>
+      </c>
+      <c r="D115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" ref="A131" si="2">ROW()-1</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" ref="A133:A146" si="3">ROW()-1</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="3"/>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
